--- a/阶段提交/数据库基表设计/数据库基表设计1.0（excel版）.xlsx
+++ b/阶段提交/数据库基表设计/数据库基表设计1.0（excel版）.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18067"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
@@ -288,7 +288,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -613,15 +613,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -633,18 +624,6 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -653,9 +632,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -663,26 +639,50 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -736,7 +736,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -811,6 +811,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -846,6 +863,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1025,11 +1059,12 @@
   <dimension ref="A1:W19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="C9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="8.88671875" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
     <col min="4" max="4" width="13.77734375" customWidth="1"/>
     <col min="5" max="5" width="14.109375" customWidth="1"/>
@@ -1040,7 +1075,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="30" t="s">
         <v>65</v>
       </c>
       <c r="B1" s="31"/>
@@ -1053,261 +1088,261 @@
       <c r="I1" s="31"/>
       <c r="J1" s="31"/>
     </row>
-    <row r="2" spans="1:23" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
-      <c r="W2" s="9"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="6"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="25" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="20"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="13"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="21"/>
-      <c r="B4" s="7"/>
+      <c r="A4" s="23"/>
+      <c r="B4" s="33"/>
       <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="20"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="13"/>
     </row>
     <row r="5" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="25" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="20"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="13"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="21"/>
-      <c r="B6" s="7"/>
+      <c r="A6" s="23"/>
+      <c r="B6" s="33"/>
       <c r="C6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="20"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="13"/>
     </row>
     <row r="7" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="25" t="s">
         <v>23</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="F7" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="17" t="s">
+      <c r="G7" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="20"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="13"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="21"/>
-      <c r="B8" s="7"/>
+      <c r="A8" s="23"/>
+      <c r="B8" s="33"/>
       <c r="C8" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="18" t="s">
+      <c r="F8" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="18" t="s">
+      <c r="G8" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="20"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="13"/>
     </row>
     <row r="9" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="25" t="s">
         <v>31</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="F9" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="G9" s="17" t="s">
+      <c r="G9" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="20"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="13"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10" s="21"/>
-      <c r="B10" s="7"/>
+      <c r="A10" s="23"/>
+      <c r="B10" s="33"/>
       <c r="C10" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="18" t="s">
+      <c r="F10" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="G10" s="18" t="s">
+      <c r="G10" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="20"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="13"/>
     </row>
     <row r="11" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="25" t="s">
         <v>38</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="E11" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="17" t="s">
+      <c r="F11" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G11" s="17" t="s">
+      <c r="G11" s="10" t="s">
         <v>42</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="I11" s="17" t="s">
+      <c r="I11" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="J11" s="22" t="s">
+      <c r="J11" s="14" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A12" s="21"/>
-      <c r="B12" s="7"/>
+      <c r="A12" s="23"/>
+      <c r="B12" s="33"/>
       <c r="C12" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="E12" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="F12" s="18" t="s">
+      <c r="F12" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="G12" s="18" t="s">
+      <c r="G12" s="11" t="s">
         <v>46</v>
       </c>
       <c r="H12" s="4" t="s">
@@ -1316,164 +1351,158 @@
       <c r="I12" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J12" s="23" t="s">
+      <c r="J12" s="15" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="25" t="s">
         <v>51</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="24" t="s">
+      <c r="E13" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="20"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="13"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14" s="21"/>
-      <c r="B14" s="6"/>
+      <c r="A14" s="23"/>
+      <c r="B14" s="32"/>
       <c r="C14" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="E14" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="20"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="13"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="25" t="s">
         <v>53</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="17" t="s">
+      <c r="E15" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="F15" s="17" t="s">
+      <c r="F15" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="G15" s="17" t="s">
+      <c r="G15" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="20"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="13"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="21"/>
-      <c r="B16" s="6"/>
+      <c r="A16" s="23"/>
+      <c r="B16" s="32"/>
       <c r="C16" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E16" s="18" t="s">
+      <c r="E16" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="18" t="s">
+      <c r="F16" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="G16" s="18" t="s">
+      <c r="G16" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="20"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="13"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="25" t="s">
         <v>59</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="D17" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="E17" s="17" t="s">
+      <c r="E17" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="F17" s="17" t="s">
+      <c r="F17" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="G17" s="18"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="20"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="13"/>
     </row>
     <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="25"/>
+      <c r="A18" s="24"/>
       <c r="B18" s="26"/>
-      <c r="C18" s="27" t="s">
+      <c r="C18" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D18" s="28" t="s">
+      <c r="D18" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="E18" s="28" t="s">
+      <c r="E18" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="F18" s="28" t="s">
+      <c r="F18" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="G18" s="28"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="30"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="20"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="33" t="s">
+      <c r="A19" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="33"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A19:J19"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
     <mergeCell ref="C2:J2"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A15:A16"/>
@@ -1487,6 +1516,12 @@
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A19:J19"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
